--- a/Supplementary Files/Supplementary_File_S5.xlsx
+++ b/Supplementary Files/Supplementary_File_S5.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Time" sheetId="7" r:id="rId1"/>
+    <sheet name="D.Time" sheetId="7" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1099,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M12:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
